--- a/CSS/Propriedades.xlsx
+++ b/CSS/Propriedades.xlsx
@@ -4,24 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="692"/>
   </bookViews>
   <sheets>
-    <sheet name="fonte" sheetId="1" r:id="rId1"/>
-    <sheet name="texto" sheetId="2" r:id="rId2"/>
-    <sheet name="cor" sheetId="3" r:id="rId3"/>
-    <sheet name="tamanho" sheetId="4" r:id="rId4"/>
-    <sheet name="fundo" sheetId="5" r:id="rId5"/>
-    <sheet name="margem" sheetId="6" r:id="rId6"/>
-    <sheet name="margem-atributo" sheetId="7" r:id="rId7"/>
-    <sheet name="largura-altura" sheetId="8" r:id="rId8"/>
+    <sheet name="seletor" sheetId="13" r:id="rId1"/>
+    <sheet name="fonte" sheetId="1" r:id="rId2"/>
+    <sheet name="texto" sheetId="2" r:id="rId3"/>
+    <sheet name="cor" sheetId="3" r:id="rId4"/>
+    <sheet name="tamanho" sheetId="4" r:id="rId5"/>
+    <sheet name="fundo" sheetId="5" r:id="rId6"/>
+    <sheet name="margem-desenho" sheetId="6" r:id="rId7"/>
+    <sheet name="margem" sheetId="7" r:id="rId8"/>
+    <sheet name="largura-altura" sheetId="8" r:id="rId9"/>
+    <sheet name="display" sheetId="9" r:id="rId10"/>
+    <sheet name="visibility" sheetId="10" r:id="rId11"/>
+    <sheet name="transform" sheetId="11" r:id="rId12"/>
+    <sheet name="pseudo" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="261">
   <si>
     <t>Propriedade</t>
   </si>
@@ -465,6 +470,345 @@
   </si>
   <si>
     <t>altura / largura maxima permitida</t>
+  </si>
+  <si>
+    <t>Propriedades Display</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elemento em nivel de linha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">width e height podem não ter efeito </t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>exibido com obloco (div)</t>
+  </si>
+  <si>
+    <t>acupa por padrão toda largura disponivel</t>
+  </si>
+  <si>
+    <t>inline-block</t>
+  </si>
+  <si>
+    <t>exibição em linha, mas com width e heigth</t>
+  </si>
+  <si>
+    <t>margins e paddings superiores e inferiores podem não ser respeitados</t>
+  </si>
+  <si>
+    <t>margens e paddings superioes e inferiores respeitados</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>oculta o elemento, removendo-o do layout</t>
+  </si>
+  <si>
+    <t>flex, grid, inline-flex, inline-grid.</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Box-shadow</t>
+  </si>
+  <si>
+    <t>valores numericos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definem a margem, distância com o bloco </t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>define a cor da sombra</t>
+  </si>
+  <si>
+    <t>Propriedades Visibility</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>elemento visivel</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>elemento ocultado, mas ainda ocupa espaço do layout</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>ocultar linhas e colunas sem alterar o tamanho das mesmas</t>
+  </si>
+  <si>
+    <t>Propriedades Float</t>
+  </si>
+  <si>
+    <t>elemento flutua do lado esquerdo do container</t>
+  </si>
+  <si>
+    <t>elemento flutua do lado direito do container</t>
+  </si>
+  <si>
+    <t>elemento não flutua</t>
+  </si>
+  <si>
+    <t>Propriedades Overflow</t>
+  </si>
+  <si>
+    <t>mesmo fora da região o conteudo sera apresentado</t>
+  </si>
+  <si>
+    <t>elemento cortado quando extrapola a sua área</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>navegador colocará barras de rolagem, com ou sem estrapolação</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>navegador colocará barras de rolagem somente com estrapolação</t>
+  </si>
+  <si>
+    <t>Propriedades Position</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <t>o único que não "está posicionado"</t>
+  </si>
+  <si>
+    <t>segue o fluxo normal do documento</t>
+  </si>
+  <si>
+    <t>primeiro posicionado de acordo com o documento, depois é delocado com top, left, right, bottom.</t>
+  </si>
+  <si>
+    <t>não afeta os elementos ao redor</t>
+  </si>
+  <si>
+    <t>elemento removido do fluxo normal</t>
+  </si>
+  <si>
+    <t>posicionado de acordo com o ancestral mais proximo posicionado</t>
+  </si>
+  <si>
+    <t>posicionado com relação à viewport (janela do navegador)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posição não se altera com a rolagem da tela </t>
+  </si>
+  <si>
+    <t>se a pagina é impressa, ele aparece na mesma posição em todas as paginas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posicionado de acordo com o fluxo normal do arquivo </t>
+  </si>
+  <si>
+    <t>ocupa espaço no layout</t>
+  </si>
+  <si>
+    <t>"gruda" no primeiro ancestral com mecanismo de rolagem</t>
+  </si>
+  <si>
+    <t>Propriedades Transform</t>
+  </si>
+  <si>
+    <t>move o elemento da horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move o elemento da vertical </t>
+  </si>
+  <si>
+    <t>move na vertical e horizontal</t>
+  </si>
+  <si>
+    <t>rotaciona o elemento</t>
+  </si>
+  <si>
+    <t>translateX (50px)</t>
+  </si>
+  <si>
+    <t>translateY (50px)</t>
+  </si>
+  <si>
+    <t>translate (30px, 100px)</t>
+  </si>
+  <si>
+    <t>rotate (45deg)</t>
+  </si>
+  <si>
+    <t>scale (2)</t>
+  </si>
+  <si>
+    <t>escalona o elemento</t>
+  </si>
+  <si>
+    <t>Pseudo Classes</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>estilo inicial do link</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>elemento interage com o usuário</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>estado ativo (botão prescionado)</t>
+  </si>
+  <si>
+    <t>valid / invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo com valor valido / invalido </t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>para elementos selecionaveis</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>quando o elemento recebe o foco</t>
+  </si>
+  <si>
+    <t>first-child</t>
+  </si>
+  <si>
+    <t>primeiro filho do elemento pai</t>
+  </si>
+  <si>
+    <t>last-child</t>
+  </si>
+  <si>
+    <t>ultimo filho do elemento pai</t>
+  </si>
+  <si>
+    <t>Pseudo Elemento</t>
+  </si>
+  <si>
+    <t>fist-line</t>
+  </si>
+  <si>
+    <t>primeira linha dos paragrafos</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>aplicada ao texto que for selecionados</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>após o conteudo normal</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>antes do conteudo normal</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>texto do placeholder do form</t>
+  </si>
+  <si>
+    <t>não pode ser utilizados em elemento sem conteudo</t>
+  </si>
+  <si>
+    <t>filho</t>
+  </si>
+  <si>
+    <t>Seletores</t>
+  </si>
+  <si>
+    <t>x &gt; y</t>
+  </si>
+  <si>
+    <t>Sintaxe</t>
+  </si>
+  <si>
+    <t>descendente</t>
+  </si>
+  <si>
+    <t>todo elemento y filho de x, imediatamente descendente</t>
+  </si>
+  <si>
+    <t>todo elemento y descendente de x, filho, neto, bisneto, etc.</t>
+  </si>
+  <si>
+    <t>x  y</t>
+  </si>
+  <si>
+    <t>irmão adjacente</t>
+  </si>
+  <si>
+    <t>x + y</t>
+  </si>
+  <si>
+    <t>primeiro elemento y após x, com mesma descendencia</t>
+  </si>
+  <si>
+    <t>irmão geral</t>
+  </si>
+  <si>
+    <t>x ~ y</t>
+  </si>
+  <si>
+    <t>todo elemento y após x, com mesma descendencia</t>
+  </si>
+  <si>
+    <t>atributo</t>
+  </si>
+  <si>
+    <t>x[atri]</t>
+  </si>
+  <si>
+    <t>todo elemento x com o atributo indicado</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -964,48 +1308,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,48 +1332,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1068,9 +1367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1078,16 +1374,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1114,39 +1401,129 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,146 +1819,819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="D1" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="69"/>
+      <c r="B4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="69"/>
+      <c r="B5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="69"/>
+      <c r="B7" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="77"/>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="69"/>
+      <c r="B9" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="93"/>
+      <c r="E11" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="83"/>
+      <c r="B12" s="82"/>
+      <c r="D12" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="93"/>
+      <c r="E17" s="59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="93"/>
+      <c r="E18" s="59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="D19" s="93"/>
+      <c r="E19" s="59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="D20" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" s="93"/>
+      <c r="E21" s="59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="D22" s="93"/>
+      <c r="E22" s="59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="77"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="77"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="77"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="77"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="93"/>
+      <c r="B17" s="59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="93"/>
+      <c r="B19" s="59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1595,12 +2645,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1613,75 +2663,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="89" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1694,12 +2744,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1711,139 +2761,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1861,7 +2911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1878,78 +2928,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="18" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1964,12 +3014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1978,84 +3028,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="1"/>
@@ -2069,281 +3119,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:H15"/>
+  <dimension ref="B4:I15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="1.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
-      <c r="E4" s="44" t="s">
+    <row r="4" spans="2:9">
+      <c r="F4" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:8" ht="3.75" customHeight="1" thickBot="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="2:9" ht="3.75" customHeight="1" thickBot="1">
+      <c r="B6" s="37"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B7" s="37"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="61" t="s">
+      <c r="H7" s="76"/>
+    </row>
+    <row r="8" spans="2:9" ht="27.75" customHeight="1">
+      <c r="B8" s="37"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="57"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="57"/>
-    </row>
-    <row r="10" spans="1:8" ht="3.75" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="74" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B9" s="37"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="2:9" ht="3.75" customHeight="1">
+      <c r="B10" s="37"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B11" s="39"/>
+      <c r="C11" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="H15" s="41"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="I15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="D1" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="76"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="D2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2352,9 +3234,215 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="D1" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="D12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2366,54 +3454,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="70" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="81" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/CSS/Propriedades.xlsx
+++ b/CSS/Propriedades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="692"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="692" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="seletor" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="262">
   <si>
     <t>Propriedade</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>todo elemento x com o atributo indicado</t>
+  </si>
+  <si>
+    <t>horizontal, vertical, blur, cor</t>
   </si>
 </sst>
 </file>
@@ -1420,9 +1423,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,7 +1507,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1485,42 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1833,11 +1836,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="54" t="s">
@@ -1851,10 +1854,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="68" t="s">
         <v>246</v>
       </c>
       <c r="C3" s="59" t="s">
@@ -1862,10 +1865,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="68" t="s">
         <v>251</v>
       </c>
       <c r="C4" s="59" t="s">
@@ -1873,10 +1876,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="68" t="s">
         <v>253</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -1884,10 +1887,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="68" t="s">
         <v>256</v>
       </c>
       <c r="C6" s="59" t="s">
@@ -1895,10 +1898,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="68" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="59" t="s">
@@ -1918,7 +1921,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1931,14 +1934,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="69"/>
+      <c r="D1" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="54" t="s">
@@ -1954,8 +1957,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="80" t="s">
         <v>149</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1964,36 +1967,36 @@
       <c r="D3" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="65" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="19" t="s">
         <v>151</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="65" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="69"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="19" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="65" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="80" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -2002,30 +2005,30 @@
       <c r="D6" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="65" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="69"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="19" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="80" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="69"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="19" t="s">
         <v>158</v>
       </c>
@@ -2043,7 +2046,7 @@
       <c r="B10" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="94" t="s">
         <v>187</v>
       </c>
       <c r="E10" s="59" t="s">
@@ -2051,21 +2054,21 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="59" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="83"/>
-      <c r="B12" s="82"/>
-      <c r="D12" s="93" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="60"/>
+      <c r="D12" s="94" t="s">
         <v>188</v>
       </c>
       <c r="E12" s="59" t="s">
@@ -2073,11 +2076,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="D13" s="93"/>
+      <c r="B13" s="69"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="59" t="s">
         <v>195</v>
       </c>
@@ -2089,7 +2092,7 @@
       <c r="B14" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="94" t="s">
         <v>189</v>
       </c>
       <c r="E14" s="59" t="s">
@@ -2103,7 +2106,7 @@
       <c r="B15" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="59" t="s">
         <v>197</v>
       </c>
@@ -2115,7 +2118,7 @@
       <c r="B16" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="94" t="s">
         <v>190</v>
       </c>
       <c r="E16" s="59" t="s">
@@ -2129,25 +2132,25 @@
       <c r="B17" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="59" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="D18" s="93"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="59" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
-      <c r="D19" s="93"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="59" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="94" t="s">
         <v>191</v>
       </c>
       <c r="E20" s="59" t="s">
@@ -2155,13 +2158,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="D21" s="93"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="59" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="D22" s="93"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="59" t="s">
         <v>203</v>
       </c>
@@ -2200,10 +2203,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="54" t="s">
@@ -2260,10 +2263,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="54" t="s">
@@ -2336,10 +2339,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="54" t="s">
@@ -2414,10 +2417,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="69"/>
     </row>
     <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="54" t="s">
@@ -2428,7 +2431,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="68" t="s">
         <v>233</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -2436,7 +2439,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="68" t="s">
         <v>235</v>
       </c>
       <c r="B15" s="59" t="s">
@@ -2444,7 +2447,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="94" t="s">
         <v>237</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2452,13 +2455,13 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="93"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="59" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="94" t="s">
         <v>239</v>
       </c>
       <c r="B18" s="59" t="s">
@@ -2466,13 +2469,13 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="93"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="59" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="68" t="s">
         <v>241</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -2498,7 +2501,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2509,11 +2512,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="55" t="s">
@@ -2604,7 +2607,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="70" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -2612,25 +2615,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="60"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="60"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="60"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="24" t="s">
         <v>88</v>
       </c>
@@ -2650,7 +2653,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,20 +2666,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2749,7 +2752,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2761,11 +2764,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="55" t="s">
@@ -2779,45 +2782,45 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="72" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="76"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="62"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="76"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="63"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="77"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
@@ -2831,7 +2834,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="72" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2842,7 +2845,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="9" t="s">
         <v>48</v>
       </c>
@@ -2851,7 +2854,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="63"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="9" t="s">
         <v>49</v>
       </c>
@@ -2860,7 +2863,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="72" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2871,7 +2874,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="12" t="s">
         <v>52</v>
       </c>
@@ -2880,7 +2883,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
@@ -2889,7 +2892,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="63"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="13" t="s">
         <v>54</v>
       </c>
@@ -2928,18 +2931,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="55" t="s">
         <v>72</v>
       </c>
@@ -2948,11 +2951,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2960,15 +2963,15 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="80" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2982,7 +2985,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
-      <c r="A6" s="69"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="10" t="s">
         <v>78</v>
       </c>
@@ -2992,7 +2995,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="69"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="10" t="s">
         <v>80</v>
       </c>
@@ -3028,14 +3031,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="67" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -3140,11 +3143,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9">
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
       <c r="B5" s="34"/>
@@ -3168,14 +3171,14 @@
       <c r="B7" s="37"/>
       <c r="C7" s="46"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="76"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="2:9" ht="27.75" customHeight="1">
       <c r="B8" s="37"/>
@@ -3208,11 +3211,11 @@
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
       <c r="B11" s="39"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="41"/>
@@ -3234,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3250,14 +3253,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="89"/>
+      <c r="D1" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="54" t="s">
@@ -3294,10 +3297,10 @@
       <c r="B4" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="90" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3308,8 +3311,8 @@
       <c r="B5" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="56" t="s">
@@ -3390,10 +3393,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="89"/>
       <c r="D12" s="6" t="s">
         <v>137</v>
       </c>
@@ -3410,19 +3413,24 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="65" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="65" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3454,10 +3462,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="92"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="55" t="s">
@@ -3479,7 +3487,7 @@
       <c r="A4" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3487,13 +3495,13 @@
       <c r="A5" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="81"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="93" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3501,7 +3509,7 @@
       <c r="A7" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="81"/>
+      <c r="B7" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/CSS/Propriedades.xlsx
+++ b/CSS/Propriedades.xlsx
@@ -4,23 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="692" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="692"/>
   </bookViews>
   <sheets>
-    <sheet name="seletor" sheetId="13" r:id="rId1"/>
-    <sheet name="fonte" sheetId="1" r:id="rId2"/>
-    <sheet name="texto" sheetId="2" r:id="rId3"/>
-    <sheet name="cor" sheetId="3" r:id="rId4"/>
-    <sheet name="tamanho" sheetId="4" r:id="rId5"/>
-    <sheet name="fundo" sheetId="5" r:id="rId6"/>
-    <sheet name="margem-desenho" sheetId="6" r:id="rId7"/>
-    <sheet name="margem" sheetId="7" r:id="rId8"/>
-    <sheet name="largura-altura" sheetId="8" r:id="rId9"/>
-    <sheet name="display" sheetId="9" r:id="rId10"/>
-    <sheet name="visibility" sheetId="10" r:id="rId11"/>
-    <sheet name="transform" sheetId="11" r:id="rId12"/>
-    <sheet name="pseudo" sheetId="12" r:id="rId13"/>
+    <sheet name="quadros" sheetId="13" r:id="rId1"/>
+    <sheet name="margem-desenho" sheetId="6" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">quadros!$A$1:$D$177</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -811,7 +803,7 @@
     <t>todo elemento x com o atributo indicado</t>
   </si>
   <si>
-    <t>horizontal, vertical, blur, cor</t>
+    <t>box-shadow: (horizontal, vertical, blur, cor)</t>
   </si>
 </sst>
 </file>
@@ -1305,12 +1297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1318,15 +1304,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1356,9 +1333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1375,7 +1349,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1423,12 +1396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1441,11 +1408,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,6 +1512,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1822,1307 +1816,1404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="2:4" ht="15.75">
+      <c r="B1" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="54" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+    </row>
+    <row r="2" spans="2:4" ht="15.75">
+      <c r="B2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="55" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="30">
+      <c r="B3" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30">
+      <c r="B4" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30">
+      <c r="B5" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30">
+      <c r="B6" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75">
+      <c r="B9" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75">
+      <c r="B10" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45">
+      <c r="B11" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="45">
+      <c r="B14" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30">
+      <c r="B16" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30">
+      <c r="B19" s="67"/>
+      <c r="C19" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30">
+      <c r="B20" s="67"/>
+      <c r="C20" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30">
+      <c r="B21" s="67"/>
+      <c r="C21" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="67"/>
+      <c r="C22" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75">
+      <c r="B24" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75">
+      <c r="B25" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="30">
+      <c r="B27" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30">
+      <c r="B29" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75">
+      <c r="B32" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="B33" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="70"/>
+      <c r="C36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="73"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="70"/>
+      <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="73"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="71"/>
+      <c r="C38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="74"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="70"/>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="71"/>
+      <c r="C42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="70"/>
+      <c r="C44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="70"/>
+      <c r="C45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="71"/>
+      <c r="C46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="93"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="48" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>260</v>
+      <c r="D49" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30">
+      <c r="A51" s="77"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="45">
+      <c r="A53" s="77"/>
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="77"/>
+      <c r="B54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="B56" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="B57" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="B58" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30">
+      <c r="B59" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30">
+      <c r="B60" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30">
+      <c r="B62" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="65" spans="2:3" ht="15.75">
+      <c r="B65" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="86"/>
+    </row>
+    <row r="66" spans="2:3" ht="15.75">
+      <c r="B66" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.75">
+      <c r="B76" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="86"/>
+    </row>
+    <row r="77" spans="2:3" ht="15.75">
+      <c r="B77" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="30">
+      <c r="B78" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" s="92"/>
+    </row>
+    <row r="82" spans="2:3" ht="15.75">
+      <c r="B82" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="66"/>
+    </row>
+    <row r="83" spans="2:3" ht="15.75">
+      <c r="B83" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="88"/>
+      <c r="C86" s="88"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="15.75">
+      <c r="B95" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="89"/>
+    </row>
+    <row r="96" spans="2:3" ht="15.75">
+      <c r="B96" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="78"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="90"/>
+    </row>
+    <row r="103" spans="2:3" ht="15.75">
+      <c r="B103" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="66"/>
+    </row>
+    <row r="104" spans="2:3" ht="15.75">
+      <c r="B104" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="77"/>
+      <c r="C106" s="62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="30">
+      <c r="B107" s="77"/>
+      <c r="C107" s="62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="77"/>
+      <c r="C109" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="30">
+      <c r="B111" s="77"/>
+      <c r="C111" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="15.75">
+      <c r="B115" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" s="66"/>
+    </row>
+    <row r="116" spans="2:3" ht="15.75">
+      <c r="B116" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="15.75">
+      <c r="B121" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="66"/>
+    </row>
+    <row r="122" spans="2:3" ht="15.75">
+      <c r="B122" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="30">
+      <c r="B123" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="30">
+      <c r="B125" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="30">
+      <c r="B126" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="15.75">
+      <c r="B128" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="66"/>
+    </row>
+    <row r="129" spans="2:3" ht="15.75">
+      <c r="B129" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C130" s="64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="91"/>
+      <c r="C131" s="64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="45">
+      <c r="B132" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="91"/>
+      <c r="C133" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="30">
+      <c r="B135" s="91"/>
+      <c r="C135" s="64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="30">
+      <c r="B136" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="91"/>
+      <c r="C137" s="64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="91"/>
+      <c r="C138" s="64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="30">
+      <c r="B139" s="91"/>
+      <c r="C139" s="64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="30">
+      <c r="B140" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C140" s="64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="91"/>
+      <c r="C141" s="64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="30">
+      <c r="B142" s="91"/>
+      <c r="C142" s="64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="15.75">
+      <c r="B144" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="66"/>
+    </row>
+    <row r="145" spans="2:3" ht="15.75">
+      <c r="B145" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" s="64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="30">
+      <c r="B147" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C147" s="64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="30">
+      <c r="B148" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="15.75">
+      <c r="B150" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" s="66"/>
+    </row>
+    <row r="151" spans="2:3" ht="15.75">
+      <c r="B151" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="15.75">
+      <c r="B158" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C158" s="66"/>
+    </row>
+    <row r="159" spans="2:3" ht="15.75">
+      <c r="B159" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="15.75">
+      <c r="B169" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="C169" s="66"/>
+    </row>
+    <row r="170" spans="2:3" ht="15.75">
+      <c r="B170" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C171" s="64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="C172" s="64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="30">
+      <c r="B174" s="91"/>
+      <c r="C174" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="C175" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="30">
+      <c r="B176" s="91"/>
+      <c r="C176" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="64" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="43">
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="D1" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="80"/>
-      <c r="B4" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="80"/>
-      <c r="B5" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="80"/>
-      <c r="B7" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="69"/>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="80"/>
-      <c r="B9" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="61"/>
-      <c r="B12" s="60"/>
-      <c r="D12" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="69"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="D18" s="94"/>
-      <c r="E18" s="59" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="D19" s="94"/>
-      <c r="E19" s="59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="D20" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" s="94"/>
-      <c r="E21" s="59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="D22" s="94"/>
-      <c r="E22" s="59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D10:D11"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="69"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="69"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="69"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="69"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="94"/>
-      <c r="B17" s="59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="94" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="94"/>
-      <c r="B19" s="59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="47" max="3" man="1"/>
+    <brk id="149" max="3" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="70"/>
-      <c r="B11" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="70"/>
-      <c r="B12" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="70"/>
-      <c r="B13" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:A14"/>
-  </mergeCells>
-  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="76"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="76"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="77"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="73"/>
-      <c r="B13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45">
-      <c r="A6" s="80"/>
-      <c r="B6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="80"/>
-      <c r="B7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:B4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="26.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:I15"/>
   <sheetViews>
@@ -3143,85 +3234,85 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9">
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:9" ht="3.75" customHeight="1" thickBot="1">
-      <c r="B6" s="37"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B7" s="37"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="84" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B8" s="37"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="42" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B9" s="37"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="38"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="3.75" customHeight="1">
-      <c r="B10" s="37"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="38"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="39"/>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="I15" s="25"/>
+      <c r="I15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3233,290 +3324,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="D1" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="D12" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="39" customHeight="1">
-      <c r="A1" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="92"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="81"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="93" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="93"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>